--- a/Rekap PNBP September 2021.xlsx
+++ b/Rekap PNBP September 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danyp\Desktop\streamlit3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BAD8281-D8AF-490F-BE7A-2370D617B180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90BD79D3-E299-42F0-8F17-BF9867F0DD9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" tabRatio="592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="30">
   <si>
     <t>Perpanjangan Izin AP</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>Izin Pendirian Cabang KAP</t>
+  </si>
+  <si>
+    <t>Target</t>
   </si>
 </sst>
 </file>
@@ -357,7 +360,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -433,6 +436,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="24">
@@ -761,9 +770,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E136"/>
+  <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="71" zoomScaleSheetLayoutView="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="71" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
@@ -772,9 +783,10 @@
     <col min="3" max="3" width="12.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.7265625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="16.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="14" t="s">
         <v>11</v>
       </c>
@@ -790,8 +802,11 @@
       <c r="E1" s="15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="21" t="s">
         <v>17</v>
       </c>
@@ -807,8 +822,11 @@
       <c r="E2" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="27">
+        <v>942500000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="21" t="s">
         <v>18</v>
       </c>
@@ -825,7 +843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="21" t="s">
         <v>19</v>
       </c>
@@ -842,7 +860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="21" t="s">
         <v>20</v>
       </c>
@@ -859,7 +877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="21" t="s">
         <v>21</v>
       </c>
@@ -876,7 +894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="21" t="s">
         <v>28</v>
       </c>
@@ -893,7 +911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" s="21" t="s">
         <v>22</v>
       </c>
@@ -910,7 +928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:6">
       <c r="A9" s="21" t="s">
         <v>23</v>
       </c>
@@ -927,7 +945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:6">
       <c r="A10" s="21" t="s">
         <v>0</v>
       </c>
@@ -944,7 +962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6">
       <c r="A11" s="21" t="s">
         <v>13</v>
       </c>
@@ -961,7 +979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" s="21" t="s">
         <v>12</v>
       </c>
@@ -978,7 +996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:6">
       <c r="A13" s="21" t="s">
         <v>24</v>
       </c>
@@ -995,7 +1013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:6">
       <c r="A14" s="21" t="s">
         <v>25</v>
       </c>
@@ -1012,7 +1030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:6">
       <c r="A15" s="21" t="s">
         <v>26</v>
       </c>
@@ -1029,7 +1047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" s="21" t="s">
         <v>27</v>
       </c>

--- a/Rekap PNBP September 2021.xlsx
+++ b/Rekap PNBP September 2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danyp\Desktop\streamlit3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BE9C79-C5E1-477C-A2F0-F17F58E440D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A65011CB-4373-4694-8EEE-DA0320016997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" tabRatio="592" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -773,7 +773,7 @@
   <dimension ref="A1:F136"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="71" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1789,7 +1789,7 @@
         <v>2282592</v>
       </c>
       <c r="D59" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59" s="5">
         <v>4</v>
@@ -2044,7 +2044,7 @@
         <v>2282592</v>
       </c>
       <c r="D74" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E74" s="5">
         <v>5</v>
